--- a/natmiOut/YoungD7/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H2">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2332183365045</v>
+        <v>15.44356366666667</v>
       </c>
       <c r="N2">
-        <v>14.2332183365045</v>
+        <v>46.330691</v>
       </c>
       <c r="O2">
-        <v>0.3020448479784348</v>
+        <v>0.2921725357712574</v>
       </c>
       <c r="P2">
-        <v>0.3020448479784348</v>
+        <v>0.2921725357712575</v>
       </c>
       <c r="Q2">
-        <v>1537.35569522789</v>
+        <v>1712.080072784061</v>
       </c>
       <c r="R2">
-        <v>1537.35569522789</v>
+        <v>15408.72065505655</v>
       </c>
       <c r="S2">
-        <v>0.0776555145065717</v>
+        <v>0.07332905552284597</v>
       </c>
       <c r="T2">
-        <v>0.0776555145065717</v>
+        <v>0.07332905552284598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H3">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>21.090500663132</v>
+        <v>1.215543</v>
       </c>
       <c r="N3">
-        <v>21.090500663132</v>
+        <v>3.646629</v>
       </c>
       <c r="O3">
-        <v>0.4475640656931878</v>
+        <v>0.02299652387975402</v>
       </c>
       <c r="P3">
-        <v>0.4475640656931878</v>
+        <v>0.02299652387975402</v>
       </c>
       <c r="Q3">
-        <v>2278.023180921456</v>
+        <v>134.755616827223</v>
       </c>
       <c r="R3">
-        <v>2278.023180921456</v>
+        <v>1212.800551445007</v>
       </c>
       <c r="S3">
-        <v>0.1150684013605126</v>
+        <v>0.005771635489145204</v>
       </c>
       <c r="T3">
-        <v>0.1150684013605126</v>
+        <v>0.005771635489145204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H4">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7991451437728</v>
+        <v>23.02356833333333</v>
       </c>
       <c r="N4">
-        <v>11.7991451437728</v>
+        <v>69.070705</v>
       </c>
       <c r="O4">
-        <v>0.2503910863283775</v>
+        <v>0.4355765604134518</v>
       </c>
       <c r="P4">
-        <v>0.2503910863283775</v>
+        <v>0.4355765604134519</v>
       </c>
       <c r="Q4">
-        <v>1274.44704048954</v>
+        <v>2552.402631846057</v>
       </c>
       <c r="R4">
-        <v>1274.44704048954</v>
+        <v>22971.62368661452</v>
       </c>
       <c r="S4">
-        <v>0.06437536930965242</v>
+        <v>0.1093203976160665</v>
       </c>
       <c r="T4">
-        <v>0.06437536930965242</v>
+        <v>0.1093203976160665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>183.226143531234</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H5">
-        <v>183.226143531234</v>
+        <v>332.581283</v>
       </c>
       <c r="I5">
-        <v>0.4361311035993117</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J5">
-        <v>0.4361311035993117</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.2332183365045</v>
+        <v>13.17500933333333</v>
       </c>
       <c r="N5">
-        <v>14.2332183365045</v>
+        <v>39.525028</v>
       </c>
       <c r="O5">
-        <v>0.3020448479784348</v>
+        <v>0.2492543799355367</v>
       </c>
       <c r="P5">
-        <v>0.3020448479784348</v>
+        <v>0.2492543799355367</v>
       </c>
       <c r="Q5">
-        <v>2607.897705835765</v>
+        <v>1460.587169205658</v>
       </c>
       <c r="R5">
-        <v>2607.897705835765</v>
+        <v>13145.28452285092</v>
       </c>
       <c r="S5">
-        <v>0.1317311528853211</v>
+        <v>0.06255751663090978</v>
       </c>
       <c r="T5">
-        <v>0.1317311528853211</v>
+        <v>0.06255751663090978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H6">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.090500663132</v>
+        <v>15.44356366666667</v>
       </c>
       <c r="N6">
-        <v>21.090500663132</v>
+        <v>46.330691</v>
       </c>
       <c r="O6">
-        <v>0.4475640656931878</v>
+        <v>0.2921725357712574</v>
       </c>
       <c r="P6">
-        <v>0.4475640656931878</v>
+        <v>0.2921725357712575</v>
       </c>
       <c r="Q6">
-        <v>3864.33110164861</v>
+        <v>2854.616137448394</v>
       </c>
       <c r="R6">
-        <v>3864.33110164861</v>
+        <v>25691.54523703555</v>
       </c>
       <c r="S6">
-        <v>0.1951966099021648</v>
+        <v>0.1222643196231903</v>
       </c>
       <c r="T6">
-        <v>0.1951966099021648</v>
+        <v>0.1222643196231903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H7">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>11.7991451437728</v>
+        <v>1.215543</v>
       </c>
       <c r="N7">
-        <v>11.7991451437728</v>
+        <v>3.646629</v>
       </c>
       <c r="O7">
-        <v>0.2503910863283775</v>
+        <v>0.02299652387975402</v>
       </c>
       <c r="P7">
-        <v>0.2503910863283775</v>
+        <v>0.02299652387975402</v>
       </c>
       <c r="Q7">
-        <v>2161.911861658778</v>
+        <v>224.683158528486</v>
       </c>
       <c r="R7">
-        <v>2161.911861658778</v>
+        <v>2022.148426756374</v>
       </c>
       <c r="S7">
-        <v>0.1092033408118258</v>
+        <v>0.009623267082357887</v>
       </c>
       <c r="T7">
-        <v>0.1092033408118258</v>
+        <v>0.009623267082357887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.2405434208797</v>
+        <v>184.841802</v>
       </c>
       <c r="H8">
-        <v>80.2405434208797</v>
+        <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.1909956520456438</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J8">
-        <v>0.1909956520456438</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2332183365045</v>
+        <v>23.02356833333333</v>
       </c>
       <c r="N8">
-        <v>14.2332183365045</v>
+        <v>69.070705</v>
       </c>
       <c r="O8">
-        <v>0.3020448479784348</v>
+        <v>0.4355765604134518</v>
       </c>
       <c r="P8">
-        <v>0.3020448479784348</v>
+        <v>0.4355765604134519</v>
       </c>
       <c r="Q8">
-        <v>1142.081173949151</v>
+        <v>4255.71785920347</v>
       </c>
       <c r="R8">
-        <v>1142.081173949151</v>
+        <v>38301.46073283123</v>
       </c>
       <c r="S8">
-        <v>0.05768925268666851</v>
+        <v>0.1822740513997317</v>
       </c>
       <c r="T8">
-        <v>0.05768925268666851</v>
+        <v>0.1822740513997318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.2405434208797</v>
+        <v>184.841802</v>
       </c>
       <c r="H9">
-        <v>80.2405434208797</v>
+        <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.1909956520456438</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J9">
-        <v>0.1909956520456438</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.090500663132</v>
+        <v>13.17500933333333</v>
       </c>
       <c r="N9">
-        <v>21.090500663132</v>
+        <v>39.525028</v>
       </c>
       <c r="O9">
-        <v>0.4475640656931878</v>
+        <v>0.2492543799355367</v>
       </c>
       <c r="P9">
-        <v>0.4475640656931878</v>
+        <v>0.2492543799355367</v>
       </c>
       <c r="Q9">
-        <v>1692.313234228136</v>
+        <v>2435.292466540152</v>
       </c>
       <c r="R9">
-        <v>1692.313234228136</v>
+        <v>21917.63219886137</v>
       </c>
       <c r="S9">
-        <v>0.08548279055926976</v>
+        <v>0.1043045236797255</v>
       </c>
       <c r="T9">
-        <v>0.08548279055926976</v>
+        <v>0.1043045236797255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H10">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.7991451437728</v>
+        <v>15.44356366666667</v>
       </c>
       <c r="N10">
-        <v>11.7991451437728</v>
+        <v>46.330691</v>
       </c>
       <c r="O10">
-        <v>0.2503910863283775</v>
+        <v>0.2921725357712574</v>
       </c>
       <c r="P10">
-        <v>0.2503910863283775</v>
+        <v>0.2921725357712575</v>
       </c>
       <c r="Q10">
-        <v>946.7698182381632</v>
+        <v>1470.717697170175</v>
       </c>
       <c r="R10">
-        <v>946.7698182381632</v>
+        <v>13236.45927453157</v>
       </c>
       <c r="S10">
-        <v>0.04782360879970554</v>
+        <v>0.06299141108444299</v>
       </c>
       <c r="T10">
-        <v>0.04782360879970554</v>
+        <v>0.06299141108444301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>48.6386223924831</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H11">
-        <v>48.6386223924831</v>
+        <v>285.69527</v>
       </c>
       <c r="I11">
-        <v>0.1157739591783078</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J11">
-        <v>0.1157739591783078</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>14.2332183365045</v>
+        <v>1.215543</v>
       </c>
       <c r="N11">
-        <v>14.2332183365045</v>
+        <v>3.646629</v>
       </c>
       <c r="O11">
-        <v>0.3020448479784348</v>
+        <v>0.02299652387975402</v>
       </c>
       <c r="P11">
-        <v>0.3020448479784348</v>
+        <v>0.02299652387975402</v>
       </c>
       <c r="Q11">
-        <v>692.2841320990088</v>
+        <v>115.75829519387</v>
       </c>
       <c r="R11">
-        <v>692.2841320990088</v>
+        <v>1041.82465674483</v>
       </c>
       <c r="S11">
-        <v>0.03496892789987349</v>
+        <v>0.00495797281356005</v>
       </c>
       <c r="T11">
-        <v>0.03496892789987349</v>
+        <v>0.004957972813560051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>48.6386223924831</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H12">
-        <v>48.6386223924831</v>
+        <v>285.69527</v>
       </c>
       <c r="I12">
-        <v>0.1157739591783078</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J12">
-        <v>0.1157739591783078</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.090500663132</v>
+        <v>23.02356833333333</v>
       </c>
       <c r="N12">
-        <v>21.090500663132</v>
+        <v>69.070705</v>
       </c>
       <c r="O12">
-        <v>0.4475640656931878</v>
+        <v>0.4355765604134518</v>
       </c>
       <c r="P12">
-        <v>0.4475640656931878</v>
+        <v>0.4355765604134519</v>
       </c>
       <c r="Q12">
-        <v>1025.812897822492</v>
+        <v>2192.574857118372</v>
       </c>
       <c r="R12">
-        <v>1025.812897822492</v>
+        <v>19733.17371406535</v>
       </c>
       <c r="S12">
-        <v>0.05181626387124059</v>
+        <v>0.0939088340501395</v>
       </c>
       <c r="T12">
-        <v>0.05181626387124059</v>
+        <v>0.09390883405013953</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>48.6386223924831</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H13">
-        <v>48.6386223924831</v>
+        <v>285.69527</v>
       </c>
       <c r="I13">
-        <v>0.1157739591783078</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J13">
-        <v>0.1157739591783078</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.7991451437728</v>
+        <v>13.17500933333333</v>
       </c>
       <c r="N13">
-        <v>11.7991451437728</v>
+        <v>39.525028</v>
       </c>
       <c r="O13">
-        <v>0.2503910863283775</v>
+        <v>0.2492543799355367</v>
       </c>
       <c r="P13">
-        <v>0.2503910863283775</v>
+        <v>0.2492543799355367</v>
       </c>
       <c r="Q13">
-        <v>573.8941652020659</v>
+        <v>1254.679282913062</v>
       </c>
       <c r="R13">
-        <v>573.8941652020659</v>
+        <v>11292.11354621756</v>
       </c>
       <c r="S13">
-        <v>0.02898876740719371</v>
+        <v>0.05373840176206566</v>
       </c>
       <c r="T13">
-        <v>0.02898876740719371</v>
+        <v>0.05373840176206567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>50.778675</v>
+      </c>
+      <c r="H14">
+        <v>152.336025</v>
+      </c>
+      <c r="I14">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="J14">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.44356366666667</v>
+      </c>
+      <c r="N14">
+        <v>46.330691</v>
+      </c>
+      <c r="O14">
+        <v>0.2921725357712574</v>
+      </c>
+      <c r="P14">
+        <v>0.2921725357712575</v>
+      </c>
+      <c r="Q14">
+        <v>784.2037002714751</v>
+      </c>
+      <c r="R14">
+        <v>7057.833302443276</v>
+      </c>
+      <c r="S14">
+        <v>0.03358774954077813</v>
+      </c>
+      <c r="T14">
+        <v>0.03358774954077814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>50.778675</v>
+      </c>
+      <c r="H15">
+        <v>152.336025</v>
+      </c>
+      <c r="I15">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="J15">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.215543</v>
+      </c>
+      <c r="N15">
+        <v>3.646629</v>
+      </c>
+      <c r="O15">
+        <v>0.02299652387975402</v>
+      </c>
+      <c r="P15">
+        <v>0.02299652387975402</v>
+      </c>
+      <c r="Q15">
+        <v>61.723662945525</v>
+      </c>
+      <c r="R15">
+        <v>555.5129665097251</v>
+      </c>
+      <c r="S15">
+        <v>0.002643648494690879</v>
+      </c>
+      <c r="T15">
+        <v>0.002643648494690879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>50.778675</v>
+      </c>
+      <c r="H16">
+        <v>152.336025</v>
+      </c>
+      <c r="I16">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="J16">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>23.02356833333333</v>
+      </c>
+      <c r="N16">
+        <v>69.070705</v>
+      </c>
+      <c r="O16">
+        <v>0.4355765604134518</v>
+      </c>
+      <c r="P16">
+        <v>0.4355765604134519</v>
+      </c>
+      <c r="Q16">
+        <v>1169.106293738625</v>
+      </c>
+      <c r="R16">
+        <v>10521.95664364763</v>
+      </c>
+      <c r="S16">
+        <v>0.05007327734751402</v>
+      </c>
+      <c r="T16">
+        <v>0.05007327734751404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>50.778675</v>
+      </c>
+      <c r="H17">
+        <v>152.336025</v>
+      </c>
+      <c r="I17">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="J17">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.17500933333333</v>
+      </c>
+      <c r="N17">
+        <v>39.525028</v>
+      </c>
+      <c r="O17">
+        <v>0.2492543799355367</v>
+      </c>
+      <c r="P17">
+        <v>0.2492543799355367</v>
+      </c>
+      <c r="Q17">
+        <v>669.0095170593</v>
+      </c>
+      <c r="R17">
+        <v>6021.0856535337</v>
+      </c>
+      <c r="S17">
+        <v>0.02865393786283574</v>
+      </c>
+      <c r="T17">
+        <v>0.02865393786283574</v>
       </c>
     </row>
   </sheetData>
